--- a/biology/Médecine/1197_en_santé_et_médecine/1197_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1197_en_santé_et_médecine/1197_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1197_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1197_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1197 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1197_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1197_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation d'une léproserie à Louvain, au Brabant[1].
-Fondation d'un hôpital à Châteauneuf, en Bourgogne, par Jehan, seigneur du lieu[2].
-Une institution hospitalière, située au pied du mont Blandin, de l'autre côté de la Lys, est attestée à Gand dans une charte de l'abbaye Saint-Pierre[3].
-L'hôpital de la Grave est mentionné pour la première fois dans une charte de Raymond VI, comte de Toulouse[4].
-Un hôpital est attesté à Rochemaure dans le Vivarais, par un acte qui le donne au prieuré clunisien de Rompon[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation d'une léproserie à Louvain, au Brabant.
+Fondation d'un hôpital à Châteauneuf, en Bourgogne, par Jehan, seigneur du lieu.
+Une institution hospitalière, située au pied du mont Blandin, de l'autre côté de la Lys, est attestée à Gand dans une charte de l'abbaye Saint-Pierre.
+L'hôpital de la Grave est mentionné pour la première fois dans une charte de Raymond VI, comte de Toulouse.
+Un hôpital est attesté à Rochemaure dans le Vivarais, par un acte qui le donne au prieuré clunisien de Rompon.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1197_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1197_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Anselme, médecin, cité dans un acte de vente ou de donation faite à Lambert d'Allevard, évêque de Maurienne[6],[7].
-Fl. Bernard, médecin, cité dans une charte de vente rédigée dans le diocèse de Toulouse[6].
-Fl. Étienne, médecin, cité dans une charte de l'abbaye de Saint-Ruf, près Valence[6].
-Fl. Payen, médecin de Champtonnay en Franche-Comté, cité dans une charte de l'abbaye de Corneux[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Anselme, médecin, cité dans un acte de vente ou de donation faite à Lambert d'Allevard, évêque de Maurienne,.
+Fl. Bernard, médecin, cité dans une charte de vente rédigée dans le diocèse de Toulouse.
+Fl. Étienne, médecin, cité dans une charte de l'abbaye de Saint-Ruf, près Valence.
+Fl. Payen, médecin de Champtonnay en Franche-Comté, cité dans une charte de l'abbaye de Corneux.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1197_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1197_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1190 et 1197 : Ibn al-Baitar (mort en 1248), médecin et botaniste arabe, auteur du Kitab al-gami (« Le Livre des simples ») qui rassemble les connaissances pharmacologiques de son temps[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1190 et 1197 : Ibn al-Baitar (mort en 1248), médecin et botaniste arabe, auteur du Kitab al-gami (« Le Livre des simples ») qui rassemble les connaissances pharmacologiques de son temps.
 </t>
         </is>
       </c>
